--- a/biology/Médecine/Covid-Organics/Covid-Organics.xlsx
+++ b/biology/Médecine/Covid-Organics/Covid-Organics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Covid-Organics (CVO) est un médicament controversé à base d'Artemisia fabriqué par le laboratoire Pharmalagasy qui, selon Andry Rajoelina, président de Madagascar, peut prévenir et guérir la maladie à coronavirus 2019 (COVID-19). 
 L'efficacité de Covid-Organics n'est pas prouvée et son utilisation est formellement déconseillée par l'Académie nationale de médecine française.
@@ -513,11 +525,13 @@
           <t>Composition et conditionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce médicament est produit à partir d'une espèce du genre Artemisia[1],[2],[3] dont l'artémisinine est extraite pour le traitement du paludisme.
-Connu sous l’appellation malagasy de « Tambavy », il est en vente libre à Madagascar[4],[5],[6]. Un conditionnement en gélules est disponible[7].
-En 2021, une nouvelle déclinaison de ce produit, CVO +,  fabriqué par l’usine pharmaceutique Pharmalagasy, est mise sur le marché[8],[9]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce médicament est produit à partir d'une espèce du genre Artemisia dont l'artémisinine est extraite pour le traitement du paludisme.
+Connu sous l’appellation malagasy de « Tambavy », il est en vente libre à Madagascar. Un conditionnement en gélules est disponible.
+En 2021, une nouvelle déclinaison de ce produit, CVO +,  fabriqué par l’usine pharmaceutique Pharmalagasy, est mise sur le marché,. 
 </t>
         </is>
       </c>
@@ -546,17 +560,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Développé et produit par l'Institut malgache de recherches appliquées (IMRA), Madagascar est le premier pays à décider d'intégrer Artemisia dans le traitement COVID-19 lorsque l'ONG Maison de l'Artemisia France, fondée par Lucile Cornet-Vernet, a contacté de nombreux pays africains lors de la pandémie COVID-19[10].
-Un chercheur de la République démocratique du Congo, le Dr Jérôme Munyangi, y a contribué. Certaines recherches sur Artemisia, menées par des scientifiques africains, ont été menées en France et au Canada[11]. Le 20 avril 2020, Rajoelina a annoncé dans une émission de télévision que son pays avait trouvé un remède « préventif et curatif » au COVID-19[12],[13],[14].
-En mai 2020, le président de la République, Andry Rajoelina, en promeut activement l'utilisation[15],[16]. Rajoelina a bu publiquement une bouteille de Covid-Organics et en a ordonné une distribution à l'échelle nationale[17].
-Madagascar livre dans plusieurs pays africains du Covid-Organics. L'OMS s'inquiète de la promotion de ce remède dont l'efficacité n'est pas prouvée[18].
-Toujours en mai 2020, la Communauté économique des États de l'Afrique de l'Ouest conteste supporter le Covid-Organics et précise que seuls les médicaments dont l'efficacité est prouvée scientifiquement peut recueillir leur soutien[19]. 
-Ce même mois, l'Agence nationale de sécurité du médicament et des produits de santé met en garde contre l'achat de produits présentés comme pouvant guérir ou prévenir l'infection à Covid-19, tels que la plante Artemisia, inefficaces et potentiellement dangereux[20]. 
-En juin 2020, l'Académie nationale de médecine déconseille formellement l'utilisation du Covid-Organics[21],[22] 
-En août 2020, il est constaté que le Covid-Organics ne parvient pas à juguler l'épidémie[23].
-Les résultats d’un essai clinique Phase III mené par le laboratoire fabriquant le médicament, Pharmalagasy sont rendus publics en 2021 qui indique qu'une personne contaminée aurait 2,25% de chances de plus de guérir si elle prend le Covid-Organics[24]. En 2022, l'OMS organise une mission afin d'en évaluer l'efficacité[25],[26],[27],[28].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Développé et produit par l'Institut malgache de recherches appliquées (IMRA), Madagascar est le premier pays à décider d'intégrer Artemisia dans le traitement COVID-19 lorsque l'ONG Maison de l'Artemisia France, fondée par Lucile Cornet-Vernet, a contacté de nombreux pays africains lors de la pandémie COVID-19.
+Un chercheur de la République démocratique du Congo, le Dr Jérôme Munyangi, y a contribué. Certaines recherches sur Artemisia, menées par des scientifiques africains, ont été menées en France et au Canada. Le 20 avril 2020, Rajoelina a annoncé dans une émission de télévision que son pays avait trouvé un remède « préventif et curatif » au COVID-19.
+En mai 2020, le président de la République, Andry Rajoelina, en promeut activement l'utilisation,. Rajoelina a bu publiquement une bouteille de Covid-Organics et en a ordonné une distribution à l'échelle nationale.
+Madagascar livre dans plusieurs pays africains du Covid-Organics. L'OMS s'inquiète de la promotion de ce remède dont l'efficacité n'est pas prouvée.
+Toujours en mai 2020, la Communauté économique des États de l'Afrique de l'Ouest conteste supporter le Covid-Organics et précise que seuls les médicaments dont l'efficacité est prouvée scientifiquement peut recueillir leur soutien. 
+Ce même mois, l'Agence nationale de sécurité du médicament et des produits de santé met en garde contre l'achat de produits présentés comme pouvant guérir ou prévenir l'infection à Covid-19, tels que la plante Artemisia, inefficaces et potentiellement dangereux. 
+En juin 2020, l'Académie nationale de médecine déconseille formellement l'utilisation du Covid-Organics, 
+En août 2020, il est constaté que le Covid-Organics ne parvient pas à juguler l'épidémie.
+Les résultats d’un essai clinique Phase III mené par le laboratoire fabriquant le médicament, Pharmalagasy sont rendus publics en 2021 qui indique qu'une personne contaminée aurait 2,25% de chances de plus de guérir si elle prend le Covid-Organics. En 2022, l'OMS organise une mission afin d'en évaluer l'efficacité.
 </t>
         </is>
       </c>
@@ -585,13 +601,15 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'efficacité du Covid-organics contre le COVID-19 reste encore à démontrer[29]. En effet, ce prétendu remède n'a pas fait l'objet d'essais cliniques appropriés et aucune donnée évaluée par des pairs n'existe[30], le produit est distribué à la population malgache et utilisé dans d’autres pays africains[31],[32].
-Dans un premier temps, l'OMS appelle Madagascar à réaliser des tests cliniques sur le Covid-Organics[33], puis annonce sa collaboration avec l'État malgache pour la réalisation de l'observation clinique après signature d'une clause de confidentialité sur la recette du Covid-Organics[34]. 
-Le Monde note cependant que le breuvage est « présenté, sans preuve scientifique, comme une solution face à l’épidémie de Covid-19 » ; le journal rapporte également que même « l'IMRA se montre prudent sur les vertus curatives du CVO »[35]. L'Académie nationale de médecine de Madagascar (ANAMEM) est également sceptique face à l'efficacité du produit[36].
-En 2022, le CVO ne fait pas partie des traitements recommandés par l'OMS[37].
-Par ailleurs, son utilisation pourrait engendrer une résistance du parasite à l'origine du paludisme aux médicaments antipaludiques à base d'artemisia[38],[39].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'efficacité du Covid-organics contre le COVID-19 reste encore à démontrer. En effet, ce prétendu remède n'a pas fait l'objet d'essais cliniques appropriés et aucune donnée évaluée par des pairs n'existe, le produit est distribué à la population malgache et utilisé dans d’autres pays africains,.
+Dans un premier temps, l'OMS appelle Madagascar à réaliser des tests cliniques sur le Covid-Organics, puis annonce sa collaboration avec l'État malgache pour la réalisation de l'observation clinique après signature d'une clause de confidentialité sur la recette du Covid-Organics. 
+Le Monde note cependant que le breuvage est « présenté, sans preuve scientifique, comme une solution face à l’épidémie de Covid-19 » ; le journal rapporte également que même « l'IMRA se montre prudent sur les vertus curatives du CVO ». L'Académie nationale de médecine de Madagascar (ANAMEM) est également sceptique face à l'efficacité du produit.
+En 2022, le CVO ne fait pas partie des traitements recommandés par l'OMS.
+Par ailleurs, son utilisation pourrait engendrer une résistance du parasite à l'origine du paludisme aux médicaments antipaludiques à base d'artemisia,.
 </t>
         </is>
       </c>
